--- a/เอกสารการทดสอบระบบ/accuracy_test.xlsx
+++ b/เอกสารการทดสอบระบบ/accuracy_test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\First-AP\Desktop\Homework\4th Year\CSI_project\เอกสารการทดสอบระบบ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D202E954-452A-43F0-937E-B03A21FAED19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C559AD-0E97-48D6-AFE0-9541D0FE239E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF4C4638-F3F0-4CF1-8EB8-5264EE7F2550}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BF4C4638-F3F0-4CF1-8EB8-5264EE7F2550}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Accuracy" sheetId="1" r:id="rId1"/>
+    <sheet name="Time" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
   <si>
     <t>%</t>
   </si>
@@ -35,13 +36,19 @@
   <si>
     <t>Grand avg</t>
   </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>sec</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.00000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -90,21 +97,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -116,6 +114,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,35 +440,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EC3195-56B5-4DDE-99B2-301FE0C196F7}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="M1" sqref="M1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="6">
+      <c r="A1" s="3">
         <v>17</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="3">
         <v>11</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="6">
         <v>11</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="6">
         <v>10</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I1">
@@ -479,32 +487,32 @@
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
+      <c r="A2" s="3">
         <v>17.991029999999999</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="5">
         <v>11.63781</v>
       </c>
-      <c r="C2" s="6">
-        <f>100-(ABS(A$1-A2)/A$1*100)</f>
+      <c r="C2" s="3">
+        <f t="shared" ref="C2:C10" si="0">100-(ABS(A$1-A2)/A$1*100)</f>
         <v>94.170411764705889</v>
       </c>
-      <c r="D2" s="6">
-        <f>100-(ABS(B$1-B2)/B$1*100)</f>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2:D10" si="1">100-(ABS(B$1-B2)/B$1*100)</f>
         <v>94.201727272727268</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="8">
         <v>11.21672</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="8">
         <v>10.46246</v>
       </c>
-      <c r="G2" s="9">
-        <f>100-(ABS(E$1-E2)/E$1*100)</f>
+      <c r="G2" s="6">
+        <f t="shared" ref="G2:H4" si="2">100-(ABS(E$1-E2)/E$1*100)</f>
         <v>98.029818181818172</v>
       </c>
-      <c r="H2" s="9">
-        <f>100-(ABS(F$1-F2)/F$1*100)</f>
+      <c r="H2" s="6">
+        <f t="shared" si="2"/>
         <v>95.375399999999999</v>
       </c>
       <c r="I2" s="2">
@@ -513,42 +521,42 @@
       <c r="J2" s="2">
         <v>20.6142</v>
       </c>
-      <c r="K2" s="12">
-        <f>100-(ABS(I$1-I2)/I$1*100)</f>
+      <c r="K2" s="9">
+        <f t="shared" ref="K2:K10" si="3">100-(ABS(I$1-I2)/I$1*100)</f>
         <v>97.514833333333328</v>
       </c>
-      <c r="L2" s="12">
-        <f>100-(ABS(J$1-J2)/J$1*100)</f>
+      <c r="L2" s="9">
+        <f t="shared" ref="L2:L10" si="4">100-(ABS(J$1-J2)/J$1*100)</f>
         <v>96.929000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
+      <c r="A3" s="5">
         <v>17.018339999999998</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="5">
         <v>11.167529999999999</v>
       </c>
-      <c r="C3" s="6">
-        <f>100-(ABS(A$1-A3)/A$1*100)</f>
+      <c r="C3" s="3">
+        <f t="shared" si="0"/>
         <v>99.892117647058839</v>
       </c>
-      <c r="D3" s="6">
-        <f>100-(ABS(B$1-B3)/B$1*100)</f>
+      <c r="D3" s="3">
+        <f t="shared" si="1"/>
         <v>98.477000000000004</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="8">
         <v>11.30109</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="8">
         <v>10.80109</v>
       </c>
-      <c r="G3" s="9">
-        <f>100-(ABS(E$1-E3)/E$1*100)</f>
+      <c r="G3" s="6">
+        <f t="shared" si="2"/>
         <v>97.262818181818176</v>
       </c>
-      <c r="H3" s="9">
-        <f>100-(ABS(F$1-F3)/F$1*100)</f>
+      <c r="H3" s="6">
+        <f t="shared" si="2"/>
         <v>91.989099999999993</v>
       </c>
       <c r="I3" s="2">
@@ -557,42 +565,42 @@
       <c r="J3" s="2">
         <v>20.407440000000001</v>
       </c>
-      <c r="K3" s="12">
-        <f>100-(ABS(I$1-I3)/I$1*100)</f>
+      <c r="K3" s="9">
+        <f t="shared" si="3"/>
         <v>99.492166666666677</v>
       </c>
-      <c r="L3" s="12">
-        <f>100-(ABS(J$1-J3)/J$1*100)</f>
+      <c r="L3" s="9">
+        <f t="shared" si="4"/>
         <v>97.962799999999987</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
+      <c r="A4" s="5">
         <v>17.59693</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="5">
         <v>11.39536</v>
       </c>
-      <c r="C4" s="6">
-        <f>100-(ABS(A$1-A4)/A$1*100)</f>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
         <v>96.488647058823531</v>
       </c>
-      <c r="D4" s="6">
-        <f>100-(ABS(B$1-B4)/B$1*100)</f>
+      <c r="D4" s="3">
+        <f t="shared" si="1"/>
         <v>96.405818181818177</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="8">
         <v>11.4808</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="8">
         <v>10.96147</v>
       </c>
-      <c r="G4" s="9">
-        <f>100-(ABS(E$1-E4)/E$1*100)</f>
+      <c r="G4" s="6">
+        <f t="shared" si="2"/>
         <v>95.629090909090905</v>
       </c>
-      <c r="H4" s="9">
-        <f>100-(ABS(F$1-F4)/F$1*100)</f>
+      <c r="H4" s="6">
+        <f t="shared" si="2"/>
         <v>90.385300000000001</v>
       </c>
       <c r="I4" s="2">
@@ -601,67 +609,67 @@
       <c r="J4" s="2">
         <v>20.990849999999998</v>
       </c>
-      <c r="K4" s="12">
-        <f>100-(ABS(I$1-I4)/I$1*100)</f>
+      <c r="K4" s="9">
+        <f t="shared" si="3"/>
         <v>95.984566666666666</v>
       </c>
-      <c r="L4" s="12">
-        <f>100-(ABS(J$1-J4)/J$1*100)</f>
+      <c r="L4" s="9">
+        <f t="shared" si="4"/>
         <v>95.045750000000012</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
+      <c r="A5" s="5">
         <v>17.51857</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="5">
         <v>10.43915</v>
       </c>
-      <c r="C5" s="6">
-        <f>100-(ABS(A$1-A5)/A$1*100)</f>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
         <v>96.949588235294115</v>
       </c>
-      <c r="D5" s="6">
-        <f>100-(ABS(B$1-B5)/B$1*100)</f>
+      <c r="D5" s="3">
+        <f t="shared" si="1"/>
         <v>94.901363636363641</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4">
+      <c r="F5" s="10"/>
+      <c r="G5" s="12">
         <f>AVERAGE(AVERAGE(G2:G4),AVERAGE(H2:H4))</f>
         <v>94.778587878787874</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="12"/>
       <c r="I5" s="2">
         <v>30.759229999999999</v>
       </c>
       <c r="J5" s="2">
         <v>20.689319999999999</v>
       </c>
-      <c r="K5" s="12">
-        <f>100-(ABS(I$1-I5)/I$1*100)</f>
+      <c r="K5" s="9">
+        <f t="shared" si="3"/>
         <v>97.469233333333335</v>
       </c>
-      <c r="L5" s="12">
-        <f>100-(ABS(J$1-J5)/J$1*100)</f>
+      <c r="L5" s="9">
+        <f t="shared" si="4"/>
         <v>96.553400000000011</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
+      <c r="A6" s="5">
         <v>17.517659999999999</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="5">
         <v>11.509169999999999</v>
       </c>
-      <c r="C6" s="6">
-        <f>100-(ABS(A$1-A6)/A$1*100)</f>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
         <v>96.954941176470598</v>
       </c>
-      <c r="D6" s="6">
-        <f>100-(ABS(B$1-B6)/B$1*100)</f>
+      <c r="D6" s="3">
+        <f t="shared" si="1"/>
         <v>95.371181818181824</v>
       </c>
       <c r="I6" s="2">
@@ -670,28 +678,28 @@
       <c r="J6" s="2">
         <v>20.402799999999999</v>
       </c>
-      <c r="K6" s="12">
-        <f>100-(ABS(I$1-I6)/I$1*100)</f>
+      <c r="K6" s="9">
+        <f t="shared" si="3"/>
         <v>99.673400000000001</v>
       </c>
-      <c r="L6" s="12">
-        <f>100-(ABS(J$1-J6)/J$1*100)</f>
+      <c r="L6" s="9">
+        <f t="shared" si="4"/>
         <v>97.986000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
+      <c r="A7" s="5">
         <v>15.94018</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="5">
         <v>10.464029999999999</v>
       </c>
-      <c r="C7" s="6">
-        <f>100-(ABS(A$1-A7)/A$1*100)</f>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
         <v>93.765764705882347</v>
       </c>
-      <c r="D7" s="6">
-        <f>100-(ABS(B$1-B7)/B$1*100)</f>
+      <c r="D7" s="3">
+        <f t="shared" si="1"/>
         <v>95.127545454545441</v>
       </c>
       <c r="I7" s="2">
@@ -700,28 +708,28 @@
       <c r="J7" s="2">
         <v>19.844629999999999</v>
       </c>
-      <c r="K7" s="12">
-        <f>100-(ABS(I$1-I7)/I$1*100)</f>
+      <c r="K7" s="9">
+        <f t="shared" si="3"/>
         <v>98.408633333333341</v>
       </c>
-      <c r="L7" s="12">
-        <f>100-(ABS(J$1-J7)/J$1*100)</f>
+      <c r="L7" s="9">
+        <f t="shared" si="4"/>
         <v>99.22314999999999</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
+      <c r="A8" s="5">
         <v>17.094919999999998</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="5">
         <v>10.358219999999999</v>
       </c>
-      <c r="C8" s="6">
-        <f>100-(ABS(A$1-A8)/A$1*100)</f>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
         <v>99.441647058823534</v>
       </c>
-      <c r="D8" s="6">
-        <f>100-(ABS(B$1-B8)/B$1*100)</f>
+      <c r="D8" s="3">
+        <f t="shared" si="1"/>
         <v>94.165636363636352</v>
       </c>
       <c r="I8" s="2">
@@ -730,28 +738,28 @@
       <c r="J8" s="2">
         <v>20.584620000000001</v>
       </c>
-      <c r="K8" s="12">
-        <f>100-(ABS(I$1-I8)/I$1*100)</f>
+      <c r="K8" s="9">
+        <f t="shared" si="3"/>
         <v>97.542033333333336</v>
       </c>
-      <c r="L8" s="12">
-        <f>100-(ABS(J$1-J8)/J$1*100)</f>
+      <c r="L8" s="9">
+        <f t="shared" si="4"/>
         <v>97.076899999999995</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
+      <c r="A9" s="5">
         <v>17.079830000000001</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="5">
         <v>10.35586</v>
       </c>
-      <c r="C9" s="6">
-        <f>100-(ABS(A$1-A9)/A$1*100)</f>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
         <v>99.530411764705875</v>
       </c>
-      <c r="D9" s="6">
-        <f>100-(ABS(B$1-B9)/B$1*100)</f>
+      <c r="D9" s="3">
+        <f t="shared" si="1"/>
         <v>94.144181818181821</v>
       </c>
       <c r="I9" s="2">
@@ -760,28 +768,28 @@
       <c r="J9" s="2">
         <v>20.312570000000001</v>
       </c>
-      <c r="K9" s="12">
-        <f>100-(ABS(I$1-I9)/I$1*100)</f>
+      <c r="K9" s="9">
+        <f t="shared" si="3"/>
         <v>96.869833333333332</v>
       </c>
-      <c r="L9" s="12">
-        <f>100-(ABS(J$1-J9)/J$1*100)</f>
+      <c r="L9" s="9">
+        <f t="shared" si="4"/>
         <v>98.437150000000003</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
+      <c r="A10" s="5">
         <v>17.308900000000001</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="5">
         <v>10.51141</v>
       </c>
-      <c r="C10" s="6">
-        <f>100-(ABS(A$1-A10)/A$1*100)</f>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
         <v>98.182941176470578</v>
       </c>
-      <c r="D10" s="6">
-        <f>100-(ABS(B$1-B10)/B$1*100)</f>
+      <c r="D10" s="3">
+        <f t="shared" si="1"/>
         <v>95.558272727272723</v>
       </c>
       <c r="I10" s="2">
@@ -790,58 +798,160 @@
       <c r="J10" s="2">
         <v>21.334769999999999</v>
       </c>
-      <c r="K10" s="12">
-        <f>100-(ABS(I$1-I10)/I$1*100)</f>
+      <c r="K10" s="9">
+        <f t="shared" si="3"/>
         <v>97.896133333333324</v>
       </c>
-      <c r="L10" s="12">
-        <f>100-(ABS(J$1-J10)/J$1*100)</f>
+      <c r="L10" s="9">
+        <f t="shared" si="4"/>
         <v>93.326149999999998</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4">
+      <c r="B11" s="10"/>
+      <c r="C11" s="12">
         <f>AVERAGE(AVERAGE(C2:C10),AVERAGE(D2:D10))</f>
         <v>96.318288770053471</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="I11" s="3" t="s">
+      <c r="D11" s="12"/>
+      <c r="I11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="4">
+      <c r="J11" s="10"/>
+      <c r="K11" s="12">
         <f>AVERAGE(AVERAGE(K2:K10),AVERAGE(L2:L10))</f>
         <v>97.410618518518532</v>
       </c>
-      <c r="L11" s="4"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="5">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11">
         <f>AVERAGE(G5,C11,K11)</f>
         <v>96.169165055786621</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37B0E94-CC48-44F1-BEE0-22BB96142807}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="13">
+        <f>AVERAGE(A1:A15)</f>
+        <v>2.4786666666666664</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>